--- a/_Out/Server/NFDataCfg/Excel_Ini/Block.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Block.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,6 +78,10 @@
   </si>
   <si>
     <t>DownID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tag</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -135,7 +139,10 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
@@ -191,13 +198,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:M53" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A1:M53"/>
-  <tableColumns count="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:N53" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="A1:N53"/>
+  <tableColumns count="14">
     <tableColumn id="1" uniqueName="ID" name="ID">
       <xmlColumnPr mapId="1" xpath="/XML/Object/@ID" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="TaskName" name="LeftSide" dataDxfId="2">
+    <tableColumn id="14" uniqueName="14" name="Tag" dataDxfId="0"/>
+    <tableColumn id="2" uniqueName="TaskName" name="LeftSide" dataDxfId="3">
       <xmlColumnPr mapId="1" xpath="/XML/Object/@TaskName" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="3" uniqueName="Type" name="RightSide">
@@ -224,8 +232,8 @@
     <tableColumn id="10" uniqueName="AwardPack" name="LeftID">
       <xmlColumnPr mapId="1" xpath="/XML/Object/@AwardPack" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="11" uniqueName="11" name="RightID" dataDxfId="1"/>
-    <tableColumn id="12" uniqueName="12" name="TopID" dataDxfId="0"/>
+    <tableColumn id="11" uniqueName="11" name="RightID" dataDxfId="2"/>
+    <tableColumn id="12" uniqueName="12" name="TopID" dataDxfId="1"/>
     <tableColumn id="13" uniqueName="13" name="DownID"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -495,431 +503,486 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M53"/>
+  <dimension ref="A1:N53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.375" customWidth="1"/>
-    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.625" customWidth="1"/>
-    <col min="8" max="8" width="27" customWidth="1"/>
-    <col min="9" max="13" width="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="17.375" customWidth="1"/>
+    <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.625" customWidth="1"/>
+    <col min="9" max="9" width="27" customWidth="1"/>
+    <col min="10" max="14" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="C2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="J2" s="1"/>
+      <c r="F2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="C3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="J3" s="1"/>
+      <c r="F3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="C5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="J5" s="1"/>
+      <c r="F5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="C6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="J6" s="1"/>
+      <c r="F6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="C8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="J8" s="1"/>
+      <c r="F8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M8" s="1"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="C9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="J9" s="1"/>
+      <c r="F9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M9" s="1"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="C11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="J11" s="1"/>
+      <c r="F11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="C12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="J12" s="1"/>
+      <c r="F12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="C14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="J14" s="1"/>
+      <c r="F14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M14" s="1"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="C15" s="1"/>
       <c r="E15" s="1"/>
-      <c r="J15" s="1"/>
+      <c r="F15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M15" s="1"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="C17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="J17" s="1"/>
+      <c r="F17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M17" s="1"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
-      <c r="D18" s="1"/>
+      <c r="C18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="J18" s="1"/>
+      <c r="F18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M18" s="1"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
-      <c r="D20" s="1"/>
+      <c r="C20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="J20" s="1"/>
+      <c r="F20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M20" s="1"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
-      <c r="D21" s="1"/>
+      <c r="C21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="J21" s="1"/>
+      <c r="F21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M21" s="1"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
-      <c r="D23" s="1"/>
+      <c r="C23" s="1"/>
       <c r="E23" s="1"/>
-      <c r="J23" s="1"/>
+      <c r="F23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M23" s="1"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
-      <c r="D24" s="1"/>
+      <c r="C24" s="1"/>
       <c r="E24" s="1"/>
-      <c r="J24" s="1"/>
+      <c r="F24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M24" s="1"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A25" s="1"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
-      <c r="D26" s="1"/>
+      <c r="C26" s="1"/>
       <c r="E26" s="1"/>
-      <c r="J26" s="1"/>
+      <c r="F26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M26" s="1"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
-      <c r="D27" s="1"/>
+      <c r="C27" s="1"/>
       <c r="E27" s="1"/>
-      <c r="J27" s="1"/>
+      <c r="F27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M27" s="1"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A28" s="1"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
-      <c r="D29" s="1"/>
+      <c r="C29" s="1"/>
       <c r="E29" s="1"/>
-      <c r="J29" s="1"/>
+      <c r="F29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M29" s="1"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="D30" s="1"/>
+      <c r="C30" s="1"/>
       <c r="E30" s="1"/>
-      <c r="J30" s="1"/>
+      <c r="F30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M30" s="1"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A31" s="1"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
-      <c r="D32" s="1"/>
+      <c r="C32" s="1"/>
       <c r="E32" s="1"/>
-      <c r="J32" s="1"/>
+      <c r="F32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M32" s="1"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
-      <c r="D33" s="1"/>
+      <c r="C33" s="1"/>
       <c r="E33" s="1"/>
-      <c r="J33" s="1"/>
+      <c r="F33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M33" s="1"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A34" s="1"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
-      <c r="D35" s="1"/>
+      <c r="C35" s="1"/>
       <c r="E35" s="1"/>
-      <c r="J35" s="1"/>
+      <c r="F35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M35" s="1"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
-      <c r="D36" s="1"/>
+      <c r="C36" s="1"/>
       <c r="E36" s="1"/>
-      <c r="J36" s="1"/>
+      <c r="F36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M36" s="1"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A37" s="1"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B37" s="1"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
-      <c r="D38" s="1"/>
+      <c r="C38" s="1"/>
       <c r="E38" s="1"/>
-      <c r="J38" s="1"/>
+      <c r="F38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M38" s="1"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
-      <c r="D39" s="1"/>
+      <c r="C39" s="1"/>
       <c r="E39" s="1"/>
-      <c r="J39" s="1"/>
+      <c r="F39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M39" s="1"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A40" s="1"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B40" s="1"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
-      <c r="D41" s="1"/>
+      <c r="C41" s="1"/>
       <c r="E41" s="1"/>
-      <c r="J41" s="1"/>
+      <c r="F41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M41" s="1"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
-      <c r="D42" s="1"/>
+      <c r="C42" s="1"/>
       <c r="E42" s="1"/>
-      <c r="J42" s="1"/>
+      <c r="F42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M42" s="1"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A43" s="1"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B43" s="1"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
-      <c r="D44" s="1"/>
+      <c r="C44" s="1"/>
       <c r="E44" s="1"/>
-      <c r="J44" s="1"/>
+      <c r="F44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M44" s="1"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
-      <c r="D45" s="1"/>
+      <c r="C45" s="1"/>
       <c r="E45" s="1"/>
-      <c r="J45" s="1"/>
+      <c r="F45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M45" s="1"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A46" s="1"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B46" s="1"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
-      <c r="D47" s="1"/>
+      <c r="C47" s="1"/>
       <c r="E47" s="1"/>
-      <c r="J47" s="1"/>
+      <c r="F47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M47" s="1"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
-      <c r="D48" s="1"/>
+      <c r="C48" s="1"/>
       <c r="E48" s="1"/>
-      <c r="J48" s="1"/>
+      <c r="F48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M48" s="1"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A49" s="1"/>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B49" s="1"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
-      <c r="D50" s="1"/>
+      <c r="C50" s="1"/>
       <c r="E50" s="1"/>
-      <c r="J50" s="1"/>
+      <c r="F50" s="1"/>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M50" s="1"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
-      <c r="D51" s="1"/>
+      <c r="C51" s="1"/>
       <c r="E51" s="1"/>
-      <c r="J51" s="1"/>
+      <c r="F51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M51" s="1"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A52" s="1"/>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B52" s="1"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
-      <c r="D53" s="1"/>
+      <c r="C53" s="1"/>
       <c r="E53" s="1"/>
-      <c r="J53" s="1"/>
+      <c r="F53" s="1"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/_Out/Server/NFDataCfg/Excel_Ini/Block.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Block.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,22 +62,6 @@
   </si>
   <si>
     <t>RightDownSide</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LeftID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RightID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TopID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DownID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -139,13 +123,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
@@ -198,14 +176,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:N53" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A1:N53"/>
-  <tableColumns count="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:J53" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="A1:J53"/>
+  <tableColumns count="10">
     <tableColumn id="1" uniqueName="ID" name="ID">
       <xmlColumnPr mapId="1" xpath="/XML/Object/@ID" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="14" uniqueName="14" name="Tag" dataDxfId="0"/>
-    <tableColumn id="2" uniqueName="TaskName" name="LeftSide" dataDxfId="3">
+    <tableColumn id="14" uniqueName="14" name="Tag" dataDxfId="1"/>
+    <tableColumn id="2" uniqueName="TaskName" name="LeftSide" dataDxfId="0">
       <xmlColumnPr mapId="1" xpath="/XML/Object/@TaskName" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="3" uniqueName="Type" name="RightSide">
@@ -229,12 +207,6 @@
     <tableColumn id="9" uniqueName="AwardGold" name="RightDownSide">
       <xmlColumnPr mapId="1" xpath="/XML/Object/@AwardGold" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="AwardPack" name="LeftID">
-      <xmlColumnPr mapId="1" xpath="/XML/Object/@AwardPack" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="11" uniqueName="11" name="RightID" dataDxfId="2"/>
-    <tableColumn id="12" uniqueName="12" name="TopID" dataDxfId="1"/>
-    <tableColumn id="13" uniqueName="13" name="DownID"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -503,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N53"/>
+  <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -519,15 +491,15 @@
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24.625" customWidth="1"/>
     <col min="9" max="9" width="27" customWidth="1"/>
-    <col min="10" max="14" width="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -553,436 +525,319 @@
       <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
-      <c r="K50" s="1"/>
-      <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
-      <c r="K51" s="1"/>
-      <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
-      <c r="K53" s="1"/>
-      <c r="L53" s="1"/>
-      <c r="M53" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/_Out/Server/NFDataCfg/Excel_Ini/Block.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Block.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,6 +67,48 @@
   <si>
     <t>Tag</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grass1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grass2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grass3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grass4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grass5</t>
+  </si>
+  <si>
+    <t>Crack1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crack2</t>
+  </si>
+  <si>
+    <t>Crack3</t>
+  </si>
+  <si>
+    <t>Crack4</t>
+  </si>
+  <si>
+    <t>Crack5</t>
+  </si>
+  <si>
+    <t>Treasure1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Treasure2</t>
   </si>
 </sst>
 </file>
@@ -176,9 +218,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:J53" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A1:J53"/>
-  <tableColumns count="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:V53" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="A1:V53"/>
+  <tableColumns count="22">
     <tableColumn id="1" uniqueName="ID" name="ID">
       <xmlColumnPr mapId="1" xpath="/XML/Object/@ID" xmlDataType="string"/>
     </tableColumn>
@@ -207,6 +249,18 @@
     <tableColumn id="9" uniqueName="AwardGold" name="RightDownSide">
       <xmlColumnPr mapId="1" xpath="/XML/Object/@AwardGold" xmlDataType="integer"/>
     </tableColumn>
+    <tableColumn id="10" uniqueName="10" name="Grass1"/>
+    <tableColumn id="11" uniqueName="11" name="Grass2"/>
+    <tableColumn id="12" uniqueName="12" name="Grass3"/>
+    <tableColumn id="13" uniqueName="13" name="Grass4"/>
+    <tableColumn id="15" uniqueName="15" name="Grass5"/>
+    <tableColumn id="16" uniqueName="16" name="Crack1"/>
+    <tableColumn id="17" uniqueName="17" name="Crack2"/>
+    <tableColumn id="18" uniqueName="18" name="Crack3"/>
+    <tableColumn id="19" uniqueName="19" name="Crack4"/>
+    <tableColumn id="20" uniqueName="20" name="Crack5"/>
+    <tableColumn id="21" uniqueName="21" name="Treasure1"/>
+    <tableColumn id="22" uniqueName="22" name="Treasure2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -475,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J53"/>
+  <dimension ref="A1:V53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -491,10 +545,17 @@
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24.625" customWidth="1"/>
     <col min="9" max="9" width="27" customWidth="1"/>
-    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="15.25" customWidth="1"/>
+    <col min="14" max="14" width="15.75" customWidth="1"/>
+    <col min="15" max="15" width="13.875" customWidth="1"/>
+    <col min="16" max="16" width="17.125" customWidth="1"/>
+    <col min="17" max="19" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.375" customWidth="1"/>
+    <col min="22" max="22" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -525,94 +586,130 @@
       <c r="J1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
     </row>

--- a/_Out/Server/NFDataCfg/Excel_Ini/Block.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Block.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -27,88 +27,283 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="79">
+  <si>
+    <t>LeftSide</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TopSide</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DownSide</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeftTopSide</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeftDownSide</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RightTopSide</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RightDownSide</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>background</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RightSide</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpritePath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dirt_ground</t>
+  </si>
+  <si>
+    <t>dirt_ground_2</t>
+  </si>
+  <si>
+    <t>dirt_ground_3</t>
+  </si>
+  <si>
+    <t>dirt_ground_4</t>
+  </si>
+  <si>
+    <t>dirt_ground_5</t>
+  </si>
+  <si>
+    <t>dirt_underground</t>
+  </si>
+  <si>
+    <t>dirt_underground_2</t>
+  </si>
+  <si>
+    <t>dirt_underground_3</t>
+  </si>
+  <si>
+    <t>granite</t>
+  </si>
+  <si>
+    <t>ice_ground</t>
+  </si>
+  <si>
+    <t>piramid_stone</t>
+  </si>
+  <si>
+    <t>sand_ground</t>
+  </si>
+  <si>
+    <t>snow_ground</t>
+  </si>
+  <si>
+    <t>stone_ground</t>
+  </si>
+  <si>
+    <t>SpriteList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TreeRootList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TreasureList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CrackList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JoinList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GrassList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>corner2</t>
+  </si>
+  <si>
+    <t>border_right</t>
+  </si>
+  <si>
+    <t>border_bottom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>border_left</t>
+  </si>
+  <si>
+    <t>border_top</t>
+  </si>
+  <si>
+    <t>corner3</t>
+  </si>
+  <si>
+    <t>corner</t>
+  </si>
+  <si>
+    <t>corner1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crack1;crack2;crack3;crack4;crack5</t>
+  </si>
+  <si>
+    <t>crack1;crack2;crack3;crack4;crack5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dirt_ground;dirt_ground1;dirt_ground2;dirt_ground3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dirt_ground;dirt_ground1;dirt_ground2;dirt_ground3;dirt_ground4;dirt_ground5;dirt_ground6;dirt_ground7;dirt_ground8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dirt_ground;dirt_ground1;dirt_ground2;dirt_ground3;dirt_ground4;dirt_ground5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dirt_ground;dirt_ground1;dirt_ground2;dirt_ground3;dirt_ground4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ice1;ice2;ice3;ice4;ice5;ice6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pir_stone1;pir_stone2;pir_stone3;pir_stone4;pir_stone5;pir_stone6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sand_ground;sand_ground1;sand_ground2;sand_ground3;sand_ground4;sand_ground5;sand_ground6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snow1;snow2;snow3;snow4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stone_ground;stone_ground1;stone_ground2;stone_ground3;stone_ground4;stone_ground5;stone_ground6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>background1;background2;background3;background4;background5;background6;background7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>left_1;left_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>right_1;right_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>top1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bottom1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeftTopOutSide</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeftDownOutSide</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RightTopOutSide</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RightDownOutSide</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>outside_corner_4</t>
+  </si>
+  <si>
+    <t>outside_corner_2</t>
+  </si>
+  <si>
+    <t>outside_corner_1</t>
+  </si>
+  <si>
+    <t>outside_corner_3</t>
+  </si>
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LeftSide</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RightSide</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TopSide</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DownSide</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LeftTopSide</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LeftDownSide</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RightTopSide</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RightDownSide</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Grass1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Grass2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Grass3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Grass4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Grass5</t>
-  </si>
-  <si>
-    <t>Crack1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Crack2</t>
-  </si>
-  <si>
-    <t>Crack3</t>
-  </si>
-  <si>
-    <t>Crack4</t>
-  </si>
-  <si>
-    <t>Crack5</t>
-  </si>
-  <si>
-    <t>Treasure1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Treasure2</t>
   </si>
 </sst>
 </file>
@@ -154,18 +349,31 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
@@ -218,14 +426,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:V53" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A1:V53"/>
-  <tableColumns count="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:U52" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="A1:U52"/>
+  <tableColumns count="21">
     <tableColumn id="1" uniqueName="ID" name="ID">
       <xmlColumnPr mapId="1" xpath="/XML/Object/@ID" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="14" uniqueName="14" name="Tag" dataDxfId="1"/>
-    <tableColumn id="2" uniqueName="TaskName" name="LeftSide" dataDxfId="0">
+    <tableColumn id="14" uniqueName="14" name="Tag" dataDxfId="2"/>
+    <tableColumn id="40" uniqueName="40" name="SpriteList" dataDxfId="0"/>
+    <tableColumn id="33" uniqueName="33" name="SpritePath" dataDxfId="1"/>
+    <tableColumn id="2" uniqueName="TaskName" name="LeftSide" dataDxfId="3">
       <xmlColumnPr mapId="1" xpath="/XML/Object/@TaskName" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="3" uniqueName="Type" name="RightSide">
@@ -249,18 +459,15 @@
     <tableColumn id="9" uniqueName="AwardGold" name="RightDownSide">
       <xmlColumnPr mapId="1" xpath="/XML/Object/@AwardGold" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="10" name="Grass1"/>
-    <tableColumn id="11" uniqueName="11" name="Grass2"/>
-    <tableColumn id="12" uniqueName="12" name="Grass3"/>
-    <tableColumn id="13" uniqueName="13" name="Grass4"/>
-    <tableColumn id="15" uniqueName="15" name="Grass5"/>
-    <tableColumn id="16" uniqueName="16" name="Crack1"/>
-    <tableColumn id="17" uniqueName="17" name="Crack2"/>
-    <tableColumn id="18" uniqueName="18" name="Crack3"/>
-    <tableColumn id="19" uniqueName="19" name="Crack4"/>
-    <tableColumn id="20" uniqueName="20" name="Crack5"/>
-    <tableColumn id="21" uniqueName="21" name="Treasure1"/>
-    <tableColumn id="22" uniqueName="22" name="Treasure2"/>
+    <tableColumn id="41" uniqueName="41" name="LeftTopOutSide"/>
+    <tableColumn id="42" uniqueName="42" name="LeftDownOutSide"/>
+    <tableColumn id="43" uniqueName="43" name="RightTopOutSide"/>
+    <tableColumn id="44" uniqueName="44" name="RightDownOutSide"/>
+    <tableColumn id="10" uniqueName="10" name="GrassList"/>
+    <tableColumn id="37" uniqueName="37" name="JoinList"/>
+    <tableColumn id="16" uniqueName="16" name="CrackList"/>
+    <tableColumn id="21" uniqueName="21" name="TreasureList"/>
+    <tableColumn id="34" uniqueName="34" name="TreeRootList"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -529,412 +736,981 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V53"/>
+  <dimension ref="A1:U52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="U7" sqref="U7"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection sqref="A1:U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="17.375" customWidth="1"/>
-    <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.625" customWidth="1"/>
-    <col min="9" max="9" width="27" customWidth="1"/>
-    <col min="10" max="11" width="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="15.25" customWidth="1"/>
-    <col min="14" max="14" width="15.75" customWidth="1"/>
-    <col min="15" max="15" width="13.875" customWidth="1"/>
-    <col min="16" max="16" width="17.125" customWidth="1"/>
-    <col min="17" max="19" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.375" customWidth="1"/>
-    <col min="22" max="22" width="15.375" customWidth="1"/>
+    <col min="1" max="1" width="27.375" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="3" max="3" width="56" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.375" customWidth="1"/>
+    <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22" customWidth="1"/>
+    <col min="14" max="15" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.375" customWidth="1"/>
+    <col min="18" max="18" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="38.25" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="17.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" t="s">
+        <v>70</v>
+      </c>
+      <c r="N1" t="s">
+        <v>71</v>
+      </c>
+      <c r="O1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="27" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="C2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" t="s">
+        <v>74</v>
+      </c>
+      <c r="N2" t="s">
+        <v>75</v>
+      </c>
+      <c r="O2" t="s">
+        <v>77</v>
+      </c>
+      <c r="P2" t="s">
+        <v>76</v>
+      </c>
+      <c r="S2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" t="s">
+        <v>38</v>
+      </c>
+      <c r="S3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="B4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" t="s">
+        <v>38</v>
+      </c>
+      <c r="S4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" t="s">
+        <v>38</v>
+      </c>
+      <c r="S5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" t="s">
+        <v>38</v>
+      </c>
+      <c r="S6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="27" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="B7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" t="s">
+        <v>38</v>
+      </c>
+      <c r="S7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="B8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L8" t="s">
+        <v>38</v>
+      </c>
+      <c r="S8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="B9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" t="s">
+        <v>37</v>
+      </c>
+      <c r="J9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K9" t="s">
+        <v>32</v>
+      </c>
+      <c r="L9" t="s">
+        <v>38</v>
+      </c>
+      <c r="S9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="B10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" t="s">
+        <v>38</v>
+      </c>
+      <c r="S10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="27" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="B11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" t="s">
+        <v>37</v>
+      </c>
+      <c r="J11" t="s">
+        <v>39</v>
+      </c>
+      <c r="K11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L11" t="s">
+        <v>38</v>
+      </c>
+      <c r="S11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" t="s">
+        <v>37</v>
+      </c>
+      <c r="J12" t="s">
+        <v>39</v>
+      </c>
+      <c r="K12" t="s">
+        <v>32</v>
+      </c>
+      <c r="L12" t="s">
+        <v>38</v>
+      </c>
+      <c r="S12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="27" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J13" t="s">
+        <v>39</v>
+      </c>
+      <c r="K13" t="s">
+        <v>32</v>
+      </c>
+      <c r="L13" t="s">
+        <v>38</v>
+      </c>
+      <c r="S13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="27" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14" t="s">
+        <v>37</v>
+      </c>
+      <c r="J14" t="s">
+        <v>39</v>
+      </c>
+      <c r="K14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L14" t="s">
+        <v>38</v>
+      </c>
+      <c r="S14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15" t="s">
+        <v>37</v>
+      </c>
+      <c r="J15" t="s">
+        <v>39</v>
+      </c>
+      <c r="K15" t="s">
+        <v>32</v>
+      </c>
+      <c r="L15" t="s">
+        <v>38</v>
+      </c>
+      <c r="S15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="27" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I16" t="s">
+        <v>37</v>
+      </c>
+      <c r="J16" t="s">
+        <v>39</v>
+      </c>
+      <c r="K16" t="s">
+        <v>32</v>
+      </c>
+      <c r="L16" t="s">
+        <v>38</v>
+      </c>
+      <c r="S16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C18" s="3"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C19" s="3"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C21" s="3"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C22" s="3"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C24" s="3"/>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C25" s="3"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="1"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C27" s="3"/>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C28" s="3"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="1"/>
       <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C30" s="3"/>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C31" s="3"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="1"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C33" s="3"/>
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C34" s="3"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="1"/>
       <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C36" s="3"/>
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C37" s="3"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="1"/>
       <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C39" s="3"/>
+      <c r="D39" s="1"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C40" s="3"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="1"/>
       <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C42" s="3"/>
+      <c r="D42" s="1"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C43" s="3"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="1"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C45" s="3"/>
+      <c r="D45" s="1"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C46" s="3"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="1"/>
       <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C48" s="3"/>
+      <c r="D48" s="1"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C49" s="3"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="1"/>
       <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C51" s="3"/>
+      <c r="D51" s="1"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/_Out/Server/NFDataCfg/Excel_Ini/Block.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Block.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="19455" windowHeight="9990"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -287,12 +287,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -301,6 +301,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
@@ -321,90 +330,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -421,7 +346,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -429,15 +354,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -450,6 +367,98 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -472,197 +481,287 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="15">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -677,6 +776,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -714,17 +824,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -736,6 +835,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -754,189 +862,195 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1255,15 +1369,15 @@
   <sheetPr/>
   <dimension ref="A1:U22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="A7" sqref="$A1:$XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="27.375" customWidth="1"/>
     <col min="2" max="2" width="17.375" customWidth="1"/>
-    <col min="3" max="3" width="56" style="3" customWidth="1"/>
+    <col min="3" max="3" width="13" style="4" customWidth="1"/>
     <col min="4" max="4" width="17.375" customWidth="1"/>
     <col min="5" max="5" width="12.75" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
@@ -1282,419 +1396,419 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:21">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="S1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="T1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="U1" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:21">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="O2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="P2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="Q2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="R2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="S2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="T2" s="7" t="s">
+      <c r="T2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="U2" s="7" t="s">
+      <c r="U2" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:21">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="C3" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D3" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="F3" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="G3" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="K3" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="L3" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="M3" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="N3" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="O3" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="P3" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="R3" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="S3" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="T3" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="U3" s="6" t="b">
+      <c r="B3" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M3" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N3" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O3" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P3" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R3" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S3" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T3" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="U3" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:21">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="C4" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D4" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="F4" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="K4" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="L4" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="M4" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="N4" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="O4" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="P4" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="R4" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="S4" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="T4" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="U4" s="6" t="b">
+      <c r="B4" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M4" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N4" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O4" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P4" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R4" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S4" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T4" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="U4" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:21">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="C5" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="K5" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="M5" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="N5" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="O5" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="P5" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="R5" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="S5" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="T5" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="U5" s="6" t="b">
+      <c r="B5" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N5" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O5" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P5" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R5" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S5" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T5" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="U5" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:21">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="C6" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D6" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="K6" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="L6" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="M6" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="N6" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="O6" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="P6" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="R6" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="S6" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="T6" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="U6" s="6" t="b">
+      <c r="B6" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N6" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O6" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P6" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R6" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S6" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T6" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="U6" s="9" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" spans="1:21">
-      <c r="A7" s="6" t="s">
+    <row r="7" s="3" customFormat="1" ht="14.25" spans="1:21">
+      <c r="A7" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
     </row>
     <row r="8" spans="1:19">
       <c r="A8" t="s">

--- a/_Out/Server/NFDataCfg/Excel_Ini/Block.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Block.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19455" windowHeight="9990"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87">
   <si>
     <t>Id</t>
   </si>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t>Cache</t>
+  </si>
+  <si>
+    <t>Ref</t>
   </si>
   <si>
     <t>Desc</t>
@@ -287,10 +290,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -316,8 +319,23 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -331,14 +349,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -352,11 +363,63 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -368,29 +431,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -405,42 +448,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -451,14 +462,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -481,192 +484,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="15">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -714,6 +717,19 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
@@ -747,6 +763,19 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -791,11 +820,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -803,8 +838,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -824,17 +859,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -867,46 +896,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -915,104 +944,104 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1022,19 +1051,22 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1043,13 +1075,16 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1367,17 +1402,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:U22"/>
+  <dimension ref="A1:U23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="A7" sqref="$A1:$XFD7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="27.375" customWidth="1"/>
     <col min="2" max="2" width="17.375" customWidth="1"/>
-    <col min="3" max="3" width="13" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13" style="5" customWidth="1"/>
     <col min="4" max="4" width="17.375" customWidth="1"/>
     <col min="5" max="5" width="12.75" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
@@ -1396,1004 +1431,1069 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:21">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="R1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="S1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="T1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="U1" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:21">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="O2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="P2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="Q2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="R2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="S2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="T2" s="8" t="s">
+      <c r="T2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="U2" s="8" t="s">
+      <c r="U2" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:21">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="C3" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D3" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="F3" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G3" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K3" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="L3" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="M3" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="N3" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="O3" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="P3" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="R3" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="S3" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="T3" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="U3" s="9" t="b">
+      <c r="B3" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M3" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="N3" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="O3" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="P3" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="R3" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S3" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="T3" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="U3" s="10" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:21">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="C4" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D4" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="F4" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K4" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="L4" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="M4" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="N4" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="O4" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="P4" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="R4" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="S4" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="T4" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="U4" s="9" t="b">
+      <c r="B4" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M4" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="N4" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="O4" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="P4" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="R4" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S4" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="T4" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="U4" s="10" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:21">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="C5" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K5" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="M5" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="N5" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="O5" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="P5" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="R5" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="S5" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="T5" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="U5" s="9" t="b">
+      <c r="B5" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="N5" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="O5" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="P5" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="R5" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S5" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="T5" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="U5" s="10" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:21">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="C6" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D6" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K6" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="L6" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="M6" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="N6" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="O6" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="P6" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="R6" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="S6" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="T6" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="U6" s="9" t="b">
+      <c r="B6" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="N6" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="O6" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="P6" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="R6" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S6" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="T6" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="U6" s="10" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" ht="14.25" spans="1:21">
-      <c r="A7" s="10" t="s">
+    <row r="7" s="3" customFormat="1" spans="1:21">
+      <c r="A7" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="12"/>
+      <c r="B7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="O7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="R7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="S7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="T7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="U7" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:19">
-      <c r="A8" t="s">
+    <row r="8" s="4" customFormat="1" ht="14.25" spans="1:21">
+      <c r="A8" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I8" t="s">
-        <v>36</v>
-      </c>
-      <c r="J8" t="s">
-        <v>37</v>
-      </c>
-      <c r="K8" t="s">
-        <v>38</v>
-      </c>
-      <c r="L8" t="s">
-        <v>39</v>
-      </c>
-      <c r="M8" t="s">
-        <v>40</v>
-      </c>
-      <c r="N8" t="s">
-        <v>41</v>
-      </c>
-      <c r="O8" t="s">
-        <v>42</v>
-      </c>
-      <c r="P8" t="s">
-        <v>43</v>
-      </c>
-      <c r="S8" t="s">
-        <v>44</v>
-      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="14"/>
     </row>
     <row r="9" spans="1:19">
       <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" t="s">
+        <v>37</v>
+      </c>
+      <c r="J9" t="s">
+        <v>38</v>
+      </c>
+      <c r="K9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M9" t="s">
+        <v>41</v>
+      </c>
+      <c r="N9" t="s">
+        <v>42</v>
+      </c>
+      <c r="O9" t="s">
+        <v>43</v>
+      </c>
+      <c r="P9" t="s">
+        <v>44</v>
+      </c>
+      <c r="S9" t="s">
         <v>45</v>
-      </c>
-      <c r="B9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" t="s">
-        <v>50</v>
-      </c>
-      <c r="H9" t="s">
-        <v>51</v>
-      </c>
-      <c r="I9" t="s">
-        <v>36</v>
-      </c>
-      <c r="J9" t="s">
-        <v>37</v>
-      </c>
-      <c r="K9" t="s">
-        <v>38</v>
-      </c>
-      <c r="L9" t="s">
-        <v>39</v>
-      </c>
-      <c r="S9" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:19">
       <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" t="s">
         <v>52</v>
       </c>
-      <c r="B10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" t="s">
-        <v>49</v>
-      </c>
-      <c r="G10" t="s">
-        <v>50</v>
-      </c>
-      <c r="H10" t="s">
-        <v>51</v>
-      </c>
       <c r="I10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" t="s">
         <v>55</v>
       </c>
-      <c r="B11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" t="s">
-        <v>54</v>
-      </c>
       <c r="E11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:19">
       <c r="A12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" t="s">
         <v>57</v>
       </c>
-      <c r="B12" t="s">
-        <v>58</v>
-      </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:19">
       <c r="A13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" t="s">
         <v>59</v>
       </c>
-      <c r="B13" t="s">
-        <v>60</v>
-      </c>
       <c r="C13" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:19">
       <c r="A14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" t="s">
         <v>62</v>
       </c>
-      <c r="B14" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" t="s">
-        <v>54</v>
-      </c>
       <c r="E14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:19">
       <c r="A15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" t="s">
         <v>64</v>
       </c>
-      <c r="B15" t="s">
-        <v>65</v>
-      </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="E15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:19">
       <c r="A16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" t="s">
         <v>66</v>
       </c>
-      <c r="B16" t="s">
-        <v>67</v>
-      </c>
-      <c r="C16"/>
+      <c r="C16" t="s">
+        <v>48</v>
+      </c>
       <c r="E16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:19">
       <c r="A17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" t="s">
         <v>68</v>
       </c>
-      <c r="B17" t="s">
-        <v>69</v>
-      </c>
-      <c r="C17" t="s">
-        <v>70</v>
-      </c>
+      <c r="C17"/>
       <c r="E17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:19">
       <c r="A18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" t="s">
         <v>71</v>
       </c>
-      <c r="B18" t="s">
-        <v>72</v>
-      </c>
-      <c r="C18" t="s">
-        <v>73</v>
-      </c>
       <c r="E18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:19">
       <c r="A19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" t="s">
         <v>74</v>
       </c>
-      <c r="B19" t="s">
-        <v>75</v>
-      </c>
-      <c r="C19" t="s">
-        <v>76</v>
-      </c>
       <c r="E19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:19">
       <c r="A20" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" t="s">
         <v>77</v>
       </c>
-      <c r="B20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C20" t="s">
-        <v>79</v>
-      </c>
       <c r="E20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:19">
       <c r="A21" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" t="s">
         <v>80</v>
       </c>
-      <c r="B21" t="s">
-        <v>81</v>
-      </c>
-      <c r="C21" t="s">
-        <v>82</v>
-      </c>
       <c r="E21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:19">
       <c r="A22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" t="s">
         <v>83</v>
       </c>
-      <c r="B22" t="s">
+      <c r="E22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" t="s">
+        <v>50</v>
+      </c>
+      <c r="G22" t="s">
+        <v>51</v>
+      </c>
+      <c r="H22" t="s">
+        <v>52</v>
+      </c>
+      <c r="I22" t="s">
+        <v>37</v>
+      </c>
+      <c r="J22" t="s">
+        <v>38</v>
+      </c>
+      <c r="K22" t="s">
+        <v>39</v>
+      </c>
+      <c r="L22" t="s">
+        <v>40</v>
+      </c>
+      <c r="S22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
+      <c r="A23" t="s">
         <v>84</v>
       </c>
-      <c r="C22" t="s">
+      <c r="B23" t="s">
         <v>85</v>
       </c>
-      <c r="E22" t="s">
-        <v>48</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="C23" t="s">
+        <v>86</v>
+      </c>
+      <c r="E23" t="s">
         <v>49</v>
       </c>
-      <c r="G22" t="s">
+      <c r="F23" t="s">
         <v>50</v>
       </c>
-      <c r="H22" t="s">
+      <c r="G23" t="s">
         <v>51</v>
       </c>
-      <c r="I22" t="s">
-        <v>36</v>
-      </c>
-      <c r="J22" t="s">
+      <c r="H23" t="s">
+        <v>52</v>
+      </c>
+      <c r="I23" t="s">
         <v>37</v>
       </c>
-      <c r="K22" t="s">
+      <c r="J23" t="s">
         <v>38</v>
       </c>
-      <c r="L22" t="s">
+      <c r="K23" t="s">
         <v>39</v>
       </c>
-      <c r="S22" t="s">
-        <v>44</v>
+      <c r="L23" t="s">
+        <v>40</v>
+      </c>
+      <c r="S23" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:U6">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 A7"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:U6 B7:I7 J7:U7">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>

--- a/_Out/Server/NFDataCfg/Excel_Ini/Block.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Block.xlsx
@@ -1,28 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27309"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/James/Desktop/NoahGameFrame/_Out/Server/NFDataCfg/Excel_Ini/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27520" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Task" type="4" background="1" refreshedVersion="2" saveData="1">
-    <webPr parsePre="1" consecutive="1" xl2000="1" sourceData="1" xml="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\Task.xml" htmlFormat="all" htmlTables="1"/>
+  <connection id="1" name="Task" type="4" refreshedVersion="2" background="1" saveData="1">
+    <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\Task.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="87">
   <si>
     <t>Id</t>
   </si>
@@ -288,18 +301,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -307,7 +314,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -318,152 +325,8 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -482,194 +345,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="17">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -793,251 +470,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1088,58 +523,16 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1400,37 +793,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.375" customWidth="1"/>
-    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="1" max="1" width="27.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
     <col min="3" max="3" width="13" style="5" customWidth="1"/>
-    <col min="4" max="4" width="17.375" customWidth="1"/>
-    <col min="5" max="5" width="12.75" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="11.625" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1"/>
     <col min="8" max="8" width="15" customWidth="1"/>
     <col min="9" max="9" width="16.5" customWidth="1"/>
-    <col min="10" max="11" width="17.75" customWidth="1"/>
+    <col min="10" max="11" width="17.6640625" customWidth="1"/>
     <col min="12" max="12" width="19" customWidth="1"/>
     <col min="13" max="13" width="22" customWidth="1"/>
     <col min="14" max="15" width="21.5" customWidth="1"/>
-    <col min="16" max="16" width="22.75" customWidth="1"/>
-    <col min="17" max="17" width="15.375" customWidth="1"/>
-    <col min="18" max="18" width="12.75" customWidth="1"/>
-    <col min="19" max="19" width="38.25" customWidth="1"/>
-    <col min="20" max="21" width="17.75" customWidth="1"/>
+    <col min="16" max="16" width="22.6640625" customWidth="1"/>
+    <col min="17" max="17" width="15.33203125" customWidth="1"/>
+    <col min="18" max="18" width="12.6640625" customWidth="1"/>
+    <col min="19" max="19" width="38.1640625" customWidth="1"/>
+    <col min="20" max="21" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:21">
+    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1495,7 +888,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:21">
+    <row r="2" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>21</v>
       </c>
@@ -1560,7 +953,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:21">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>24</v>
       </c>
@@ -1625,7 +1018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:21">
+    <row r="4" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>25</v>
       </c>
@@ -1690,7 +1083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:21">
+    <row r="5" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>26</v>
       </c>
@@ -1755,7 +1148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:21">
+    <row r="6" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>27</v>
       </c>
@@ -1820,7 +1213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" spans="1:21">
+    <row r="7" spans="1:21" s="3" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
         <v>28</v>
       </c>
@@ -1885,7 +1278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="4" customFormat="1" ht="14.25" spans="1:21">
+    <row r="8" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
         <v>29</v>
       </c>
@@ -1910,7 +1303,7 @@
       <c r="T8" s="14"/>
       <c r="U8" s="14"/>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -1960,7 +1353,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -1998,7 +1391,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>53</v>
       </c>
@@ -2036,7 +1429,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>56</v>
       </c>
@@ -2074,7 +1467,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>58</v>
       </c>
@@ -2112,7 +1505,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>60</v>
       </c>
@@ -2150,7 +1543,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>63</v>
       </c>
@@ -2188,7 +1581,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>65</v>
       </c>
@@ -2226,7 +1619,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>67</v>
       </c>
@@ -2262,7 +1655,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>69</v>
       </c>
@@ -2300,7 +1693,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>72</v>
       </c>
@@ -2338,7 +1731,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>75</v>
       </c>
@@ -2376,7 +1769,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>78</v>
       </c>
@@ -2414,7 +1807,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:19">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>81</v>
       </c>
@@ -2452,7 +1845,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:19">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>84</v>
       </c>
@@ -2497,8 +1890,7 @@
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/_Out/Server/NFDataCfg/Excel_Ini/Block.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Block.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27309"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/James/Desktop/NoahGameFrame/_Out/Server/NFDataCfg/Excel_Ini/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cherish\Desktop\git\nf\develop\_Out\Server\NFDataCfg\Excel_Ini\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
   <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="88">
   <si>
     <t>Id</t>
   </si>
@@ -296,17 +296,21 @@
   </si>
   <si>
     <t>stone_ground;stone_ground1;stone_ground2;stone_ground3;stone_ground4;stone_ground5;stone_ground6</t>
+  </si>
+  <si>
+    <t>Upload</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -314,8 +318,8 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -324,6 +328,12 @@
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -524,13 +534,16 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -794,36 +807,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U23"/>
+  <dimension ref="A1:U24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="1" max="1" width="27.36328125" customWidth="1"/>
+    <col min="2" max="2" width="17.36328125" customWidth="1"/>
     <col min="3" max="3" width="13" style="5" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="17.36328125" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" customWidth="1"/>
+    <col min="7" max="7" width="11.6328125" customWidth="1"/>
     <col min="8" max="8" width="15" customWidth="1"/>
-    <col min="9" max="9" width="16.5" customWidth="1"/>
-    <col min="10" max="11" width="17.6640625" customWidth="1"/>
+    <col min="9" max="9" width="16.453125" customWidth="1"/>
+    <col min="10" max="11" width="17.6328125" customWidth="1"/>
     <col min="12" max="12" width="19" customWidth="1"/>
     <col min="13" max="13" width="22" customWidth="1"/>
-    <col min="14" max="15" width="21.5" customWidth="1"/>
-    <col min="16" max="16" width="22.6640625" customWidth="1"/>
-    <col min="17" max="17" width="15.33203125" customWidth="1"/>
-    <col min="18" max="18" width="12.6640625" customWidth="1"/>
-    <col min="19" max="19" width="38.1640625" customWidth="1"/>
-    <col min="20" max="21" width="17.6640625" customWidth="1"/>
+    <col min="14" max="15" width="21.453125" customWidth="1"/>
+    <col min="16" max="16" width="22.6328125" customWidth="1"/>
+    <col min="17" max="17" width="15.36328125" customWidth="1"/>
+    <col min="18" max="18" width="12.6328125" customWidth="1"/>
+    <col min="19" max="19" width="38.1796875" customWidth="1"/>
+    <col min="20" max="21" width="17.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -888,7 +901,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>21</v>
       </c>
@@ -953,7 +966,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>24</v>
       </c>
@@ -1018,7 +1031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>25</v>
       </c>
@@ -1083,7 +1096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>26</v>
       </c>
@@ -1148,7 +1161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>27</v>
       </c>
@@ -1213,7 +1226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="3" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>28</v>
       </c>
@@ -1278,102 +1291,117 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
+    <row r="8" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
-      <c r="T8" s="14"/>
-      <c r="U8" s="14"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="14"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>30</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>31</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>32</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E10" t="s">
         <v>33</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F10" t="s">
         <v>34</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G10" t="s">
         <v>35</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H10" t="s">
         <v>36</v>
-      </c>
-      <c r="I9" t="s">
-        <v>37</v>
-      </c>
-      <c r="J9" t="s">
-        <v>38</v>
-      </c>
-      <c r="K9" t="s">
-        <v>39</v>
-      </c>
-      <c r="L9" t="s">
-        <v>40</v>
-      </c>
-      <c r="M9" t="s">
-        <v>41</v>
-      </c>
-      <c r="N9" t="s">
-        <v>42</v>
-      </c>
-      <c r="O9" t="s">
-        <v>43</v>
-      </c>
-      <c r="P9" t="s">
-        <v>44</v>
-      </c>
-      <c r="S9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" t="s">
-        <v>51</v>
-      </c>
-      <c r="H10" t="s">
-        <v>52</v>
       </c>
       <c r="I10" t="s">
         <v>37</v>
@@ -1387,19 +1415,31 @@
       <c r="L10" t="s">
         <v>40</v>
       </c>
+      <c r="M10" t="s">
+        <v>41</v>
+      </c>
+      <c r="N10" t="s">
+        <v>42</v>
+      </c>
+      <c r="O10" t="s">
+        <v>43</v>
+      </c>
+      <c r="P10" t="s">
+        <v>44</v>
+      </c>
       <c r="S10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E11" t="s">
         <v>49</v>
@@ -1429,12 +1469,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C12" t="s">
         <v>55</v>
@@ -1467,12 +1507,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C13" t="s">
         <v>55</v>
@@ -1505,15 +1545,15 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C14" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E14" t="s">
         <v>49</v>
@@ -1543,15 +1583,15 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="E15" t="s">
         <v>49</v>
@@ -1581,15 +1621,15 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E16" t="s">
         <v>49</v>
@@ -1619,14 +1659,16 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B17" t="s">
-        <v>68</v>
-      </c>
-      <c r="C17"/>
+        <v>66</v>
+      </c>
+      <c r="C17" t="s">
+        <v>48</v>
+      </c>
       <c r="E17" t="s">
         <v>49</v>
       </c>
@@ -1655,16 +1697,14 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B18" t="s">
-        <v>70</v>
-      </c>
-      <c r="C18" t="s">
-        <v>71</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="C18"/>
       <c r="E18" t="s">
         <v>49</v>
       </c>
@@ -1693,15 +1733,15 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B19" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C19" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E19" t="s">
         <v>49</v>
@@ -1731,15 +1771,15 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E20" t="s">
         <v>49</v>
@@ -1769,15 +1809,15 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B21" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C21" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E21" t="s">
         <v>49</v>
@@ -1807,15 +1847,15 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B22" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C22" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E22" t="s">
         <v>49</v>
@@ -1845,15 +1885,15 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B23" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C23" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E23" t="s">
         <v>49</v>
@@ -1883,10 +1923,49 @@
         <v>45</v>
       </c>
     </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" t="s">
+        <v>86</v>
+      </c>
+      <c r="E24" t="s">
+        <v>49</v>
+      </c>
+      <c r="F24" t="s">
+        <v>50</v>
+      </c>
+      <c r="G24" t="s">
+        <v>51</v>
+      </c>
+      <c r="H24" t="s">
+        <v>52</v>
+      </c>
+      <c r="I24" t="s">
+        <v>37</v>
+      </c>
+      <c r="J24" t="s">
+        <v>38</v>
+      </c>
+      <c r="K24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L24" t="s">
+        <v>40</v>
+      </c>
+      <c r="S24" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 A7"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:U6 B7:I7 J7:U7">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6:A8"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:U8">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
